--- a/Jogos_do_Dia/2022-12-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.86</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="V2" t="n">
         <v>0.5</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.32</v>
+        <v>3.28</v>
       </c>
       <c r="G3" t="n">
-        <v>2.87</v>
+        <v>3.14</v>
       </c>
       <c r="H3" t="n">
-        <v>2.36</v>
+        <v>2.21</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -766,7 +766,7 @@
         <v>2.35</v>
       </c>
       <c r="N3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.52</v>
@@ -814,7 +814,7 @@
         <v>2.09</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE3" t="n">
         <v>1.63</v>
@@ -826,7 +826,7 @@
         <v>2.54</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.01</v>
+        <v>2.26</v>
       </c>
       <c r="G4" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.28</v>
+        <v>2.84</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,22 +873,22 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="N4" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.94</v>
+        <v>1.83</v>
       </c>
       <c r="G5" t="n">
-        <v>3.5</v>
+        <v>3.36</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
@@ -1075,10 +1075,10 @@
         <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>4.23</v>
+        <v>4.3</v>
       </c>
       <c r="H6" t="n">
-        <v>6.96</v>
+        <v>6.45</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="N6" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
@@ -1292,10 +1292,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G8" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
         <v>1.87</v>
@@ -1313,10 +1313,10 @@
         <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="N8" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="O8" t="n">
         <v>1.49</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.43</v>
+        <v>2.65</v>
       </c>
       <c r="G9" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="I9" t="n">
         <v>1.1</v>
@@ -1423,10 +1423,10 @@
         <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="G11" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.28</v>
+        <v>3.05</v>
       </c>
       <c r="I11" t="n">
         <v>1.12</v>
@@ -1643,10 +1643,10 @@
         <v>2.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="N11" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="O11" t="n">
         <v>1.53</v>
@@ -1694,7 +1694,7 @@
         <v>2.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE11" t="n">
         <v>1.61</v>
@@ -1706,7 +1706,7 @@
         <v>2.46</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="G12" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.37</v>
+        <v>2.63</v>
       </c>
       <c r="I12" t="n">
         <v>1.07</v>
@@ -1753,10 +1753,10 @@
         <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N12" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>

--- a/Jogos_do_Dia/2022-12-12_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-12_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="H2" t="n">
-        <v>4.86</v>
+        <v>4.67</v>
       </c>
       <c r="I2" t="n">
         <v>1.1</v>
@@ -653,10 +653,10 @@
         <v>2.63</v>
       </c>
       <c r="M2" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="N2" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="O2" t="n">
         <v>1.57</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.28</v>
+        <v>3.66</v>
       </c>
       <c r="G3" t="n">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="H3" t="n">
-        <v>2.21</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
         <v>1.05</v>
@@ -763,10 +763,10 @@
         <v>2.6</v>
       </c>
       <c r="M3" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="N3" t="n">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="O3" t="n">
         <v>1.52</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="G4" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="N4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O4" t="n">
         <v>1.53</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="G5" t="n">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="N5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
@@ -1034,10 +1034,10 @@
         <v>3.32</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF5" t="n">
         <v>1.67</v>
@@ -1075,10 +1075,10 @@
         <v>1.45</v>
       </c>
       <c r="G6" t="n">
-        <v>4.3</v>
+        <v>4.23</v>
       </c>
       <c r="H6" t="n">
-        <v>6.45</v>
+        <v>6.96</v>
       </c>
       <c r="I6" t="n">
         <v>1.04</v>
@@ -1093,10 +1093,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="O6" t="n">
         <v>1.34</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1316,7 +1316,7 @@
         <v>2.35</v>
       </c>
       <c r="N8" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
         <v>1.49</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>2.54</v>
+        <v>2.37</v>
       </c>
       <c r="I9" t="n">
         <v>1.1</v>
@@ -1423,10 +1423,10 @@
         <v>2.75</v>
       </c>
       <c r="M9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.27</v>
+        <v>2.55</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="I11" t="n">
         <v>1.12</v>
@@ -1643,10 +1643,10 @@
         <v>2.5</v>
       </c>
       <c r="M11" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N11" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.53</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="H12" t="n">
-        <v>2.63</v>
+        <v>2.37</v>
       </c>
       <c r="I12" t="n">
         <v>1.07</v>
@@ -1753,10 +1753,10 @@
         <v>3.2</v>
       </c>
       <c r="M12" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N12" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
